--- a/资料/原著时间线.xlsx
+++ b/资料/原著时间线.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\HuoYingZhiYuZhiBoQianShi\资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\projects\HuoYingNovel\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF00A5-FF4E-433F-A0A6-F6D51E4BDE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D053B3F-FA4B-4EAA-80CC-95178D791D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2096,8 +2096,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="V149" sqref="V149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5644,75 +5646,29 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="B4:B20"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AC46:AD46"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="B100:B111"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="W101:Z101"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="W109:X109"/>
-    <mergeCell ref="AH70:AI70"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="Y74:Z74"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="B21:B97"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="AG109:AH109"/>
-    <mergeCell ref="V110:X110"/>
-    <mergeCell ref="AG110:AI110"/>
-    <mergeCell ref="AG111:AH111"/>
-    <mergeCell ref="V112:Z112"/>
-    <mergeCell ref="B113:B128"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="S127:T127"/>
-    <mergeCell ref="AG102:AH102"/>
-    <mergeCell ref="L104:M104"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="AG106:AH106"/>
+    <mergeCell ref="B202:B203"/>
+    <mergeCell ref="AA202:AB202"/>
+    <mergeCell ref="AA203:AB203"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="W198:X198"/>
+    <mergeCell ref="AA198:AB198"/>
+    <mergeCell ref="W199:X199"/>
+    <mergeCell ref="AA199:AB199"/>
+    <mergeCell ref="W200:X200"/>
+    <mergeCell ref="AA200:AB200"/>
+    <mergeCell ref="AE191:AF191"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="AA193:AB193"/>
+    <mergeCell ref="W194:X194"/>
+    <mergeCell ref="AA195:AB195"/>
+    <mergeCell ref="AA196:AB196"/>
+    <mergeCell ref="AG168:AH168"/>
+    <mergeCell ref="B177:B188"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="AG180:AH180"/>
+    <mergeCell ref="C185:C187"/>
     <mergeCell ref="AC153:AD153"/>
     <mergeCell ref="C154:C156"/>
     <mergeCell ref="AC154:AD154"/>
@@ -5735,29 +5691,75 @@
     <mergeCell ref="E132:F132"/>
     <mergeCell ref="Y132:Z132"/>
     <mergeCell ref="AC135:AD135"/>
-    <mergeCell ref="AE191:AF191"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="AA193:AB193"/>
-    <mergeCell ref="W194:X194"/>
-    <mergeCell ref="AA195:AB195"/>
-    <mergeCell ref="AA196:AB196"/>
-    <mergeCell ref="AG168:AH168"/>
-    <mergeCell ref="B177:B188"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="AG180:AH180"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="B202:B203"/>
-    <mergeCell ref="AA202:AB202"/>
-    <mergeCell ref="AA203:AB203"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="W198:X198"/>
-    <mergeCell ref="AA198:AB198"/>
-    <mergeCell ref="W199:X199"/>
-    <mergeCell ref="AA199:AB199"/>
-    <mergeCell ref="W200:X200"/>
-    <mergeCell ref="AA200:AB200"/>
+    <mergeCell ref="V112:Z112"/>
+    <mergeCell ref="B113:B128"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="S127:T127"/>
+    <mergeCell ref="AG102:AH102"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="AG106:AH106"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="B100:B111"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="W101:Z101"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="W109:X109"/>
+    <mergeCell ref="AH70:AI70"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="Y74:Z74"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="B21:B97"/>
+    <mergeCell ref="C21:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="AG109:AH109"/>
+    <mergeCell ref="V110:X110"/>
+    <mergeCell ref="AG110:AI110"/>
+    <mergeCell ref="AG111:AH111"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AC46:AD46"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="B4:B20"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="R19:S19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
